--- a/data/trans_bre/IP16B01-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP16B01-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -727,12 +727,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,06; 17,07</t>
+          <t>-30,76; 16,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,87; 24,97</t>
+          <t>-32,6; 25,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -742,12 +742,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,79; 22,16</t>
+          <t>-34,37; 18,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,37; 36,2</t>
+          <t>-33,85; 36,08</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,85</t>
+          <t>0,0; 4,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,52; -2,55</t>
+          <t>-21,0; -3,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,89; 1,38</t>
+          <t>-21,51; 2,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,12 +822,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,23; -2,79</t>
+          <t>-21,54; -4,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,77; 1,61</t>
+          <t>-23,51; 1,96</t>
         </is>
       </c>
     </row>
@@ -882,17 +882,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,22</t>
+          <t>0,0; 12,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,27; 4,52</t>
+          <t>-27,58; 6,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 26,06</t>
+          <t>-15,97; 24,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,73; 4,96</t>
+          <t>-29,21; 6,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,96; 38,48</t>
+          <t>-16,26; 34,9</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,39</t>
+          <t>0,0; 4,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,81; -3,22</t>
+          <t>-18,8; -4,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 3,14</t>
+          <t>-15,76; 4,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -982,12 +982,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,04; -3,64</t>
+          <t>-20,03; -4,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 3,4</t>
+          <t>-17,36; 5,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16B01-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP16B01-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,17 +604,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-8,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-5,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -624,12 +624,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,48%</t>
         </is>
       </c>
     </row>
@@ -647,34 +647,34 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-28,85; 15,82</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-34,58; 31,28</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,86; 20,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,33; 40,84</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,21</t>
+          <t>-11,44</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,77</t>
+          <t>-10,05</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,34%</t>
+          <t>-11,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,48%</t>
+          <t>-11,28%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 6,24</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-20,62; -2,67</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-21,89; 2,95</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-30,76; 16,48</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-32,6; 25,31</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,37; 18,74</t>
+          <t>-21,64; -2,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,85; 36,08</t>
+          <t>-23,9; 3,25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-11,44</t>
+          <t>-11,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,05</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -784,12 +784,12 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-11,95%</t>
+          <t>-12,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,28%</t>
+          <t>3,37%</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,39</t>
+          <t>0,0; 14,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,0; -3,82</t>
+          <t>-28,67; 4,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,51; 2,08</t>
+          <t>-15,56; 22,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,19 +822,19 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,54; -4,29</t>
+          <t>-30,45; 5,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,51; 1,96</t>
+          <t>-16,45; 33,23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-11,33</t>
+          <t>-11,09</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>-6,61</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,51%</t>
+          <t>-11,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>-7,49%</t>
         </is>
       </c>
     </row>
@@ -882,17 +882,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,85</t>
+          <t>0,0; 3,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,58; 6,31</t>
+          <t>-19,16; -3,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,97; 24,3</t>
+          <t>-16,04; 3,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -902,107 +902,26 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,21; 6,91</t>
+          <t>-20,3; -3,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,26; 34,9</t>
+          <t>-17,48; 4,18</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-11,09</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-6,61</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-11,87%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-7,49%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,65</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-18,8; -4,28</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-15,76; 4,37</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-20,03; -4,82</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-17,36; 5,16</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
